--- a/data/Unicrypt/Unicrypt20150101.xlsx
+++ b/data/Unicrypt/Unicrypt20150101.xlsx
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80">
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100">
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="104">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="106">
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108">
@@ -2374,7 +2374,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
